--- a/Derives_de_taux/xls/CalageCourbeDesTaux_vide.xlsx
+++ b/Derives_de_taux/xls/CalageCourbeDesTaux_vide.xlsx
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="1">
-        <v>1.6000000000000001E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="D2">
         <f>I2</f>
@@ -510,7 +510,7 @@
       </c>
       <c r="E2" s="3">
         <f>VLOOKUP(D2,$I$2:$K$35,3,FALSE)</f>
-        <v>1.6222150127941923E-3</v>
+        <v>-2.3319593430685586E-3</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="7"/>
@@ -523,22 +523,22 @@
       </c>
       <c r="J2" s="8">
         <f t="shared" ref="J2:J10" si="0">C2</f>
-        <v>1.6000000000000001E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="K2" s="9">
-        <v>1.6222150127941923E-3</v>
+        <v>-2.3319593430685586E-3</v>
       </c>
       <c r="L2" s="7">
         <f>EXP(-I2*K2)</f>
-        <v>0.99999111119012052</v>
+        <v>1.0000127779410513</v>
       </c>
       <c r="M2" s="8">
         <f>(1/L2-1)/I2*360/365</f>
-        <v>1.6000000004101622E-3</v>
+        <v>-2.2999999999551157E-3</v>
       </c>
       <c r="N2" s="9">
         <f t="shared" ref="N2:N10" si="1">(M2-J2)*1000000</f>
-        <v>4.1016213862821171E-7</v>
+        <v>4.4884235217423907E-8</v>
       </c>
     </row>
     <row r="3" spans="2:16">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="D3">
         <f>I3</f>
@@ -554,7 +554,7 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E17" si="2">VLOOKUP(D3,$I$2:$K$35,3,FALSE)</f>
-        <v>2.3830585940880964E-3</v>
+        <v>-2.3321579862787402E-3</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
@@ -567,22 +567,22 @@
       </c>
       <c r="J3" s="8">
         <f t="shared" si="0"/>
-        <v>2.3999999999999998E-3</v>
+        <v>-2.3E-3</v>
       </c>
       <c r="K3" s="9">
-        <v>2.3830585940880964E-3</v>
+        <v>-2.3321579862787402E-3</v>
       </c>
       <c r="L3" s="7">
         <f t="shared" ref="L3:L35" si="3">EXP(-(I3+$I$2)*K3)</f>
-        <v>0.99978837632396567</v>
+        <v>1.0002071468986831</v>
       </c>
       <c r="M3" s="8">
         <f>($L$2/L3-1)/I3*360/365</f>
-        <v>2.4000000113162724E-3</v>
+        <v>-2.2999999921884517E-3</v>
       </c>
       <c r="N3" s="9">
         <f t="shared" si="1"/>
-        <v>1.1316272571781916E-5</v>
+        <v>7.8115482832208372E-6</v>
       </c>
     </row>
     <row r="4" spans="2:16">
@@ -590,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="D4">
         <f>I4</f>
@@ -598,7 +598,7 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="2"/>
-        <v>3.0100915546290232E-3</v>
+        <v>-1.6377664481033417E-3</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="7">
@@ -614,22 +614,22 @@
       </c>
       <c r="J4" s="8">
         <f t="shared" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>-1.6000000000000001E-3</v>
       </c>
       <c r="K4" s="9">
-        <v>3.0100915546290232E-3</v>
+        <v>-1.6377664481033417E-3</v>
       </c>
       <c r="L4" s="7">
         <f t="shared" si="3"/>
-        <v>0.99923127907642573</v>
+        <v>1.0004185032228037</v>
       </c>
       <c r="M4" s="8">
         <f>($L$2/L4-1)/I4*360/365</f>
-        <v>2.9999999811689791E-3</v>
+        <v>-1.5999999995654681E-3</v>
       </c>
       <c r="N4" s="9">
         <f t="shared" si="1"/>
-        <v>-1.8831020943965715E-5</v>
+        <v>4.3453196769960289E-7</v>
       </c>
     </row>
     <row r="5" spans="2:16">
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="D5">
         <f>I5</f>
@@ -645,7 +645,7 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="2"/>
-        <v>4.025115978379336E-3</v>
+        <v>-1.0284312082783202E-3</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="7">
@@ -662,22 +662,22 @@
       </c>
       <c r="J5" s="8">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="K5" s="9">
-        <v>4.025115978379336E-3</v>
+        <v>-1.0284312082783202E-3</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="3"/>
-        <v>0.99796745500362316</v>
+        <v>1.000519985989504</v>
       </c>
       <c r="M5" s="8">
         <f>($L$2/L5-1)/I5*360/365</f>
-        <v>3.9999999175663577E-3</v>
+        <v>-9.9999999999932413E-4</v>
       </c>
       <c r="N5" s="9">
         <f t="shared" si="1"/>
-        <v>-8.2433642377421901E-5</v>
+        <v>6.7589163432746346E-10</v>
       </c>
       <c r="P5" s="6"/>
     </row>
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>5.7000000000000002E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="D6">
         <f>I6</f>
@@ -694,11 +694,9 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="2"/>
-        <v>5.739968083015968E-3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
+        <v>-9.2064978459862625E-4</v>
+      </c>
+      <c r="F6" s="5"/>
       <c r="G6" s="7">
         <f>G5+6</f>
         <v>12</v>
@@ -713,22 +711,22 @@
       </c>
       <c r="J6" s="8">
         <f t="shared" si="0"/>
-        <v>5.7000000000000002E-3</v>
+        <v>-8.9999999999999998E-4</v>
       </c>
       <c r="K6" s="9">
-        <v>5.739968083015968E-3</v>
+        <v>-9.2064978459862625E-4</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="3"/>
-        <v>0.99424520268713223</v>
+        <v>1.0009261230282884</v>
       </c>
       <c r="M6" s="8">
         <f>($L$2/L6-1)/I6*360/365</f>
-        <v>5.6999997709702753E-3</v>
+        <v>-8.9999999997425017E-4</v>
       </c>
       <c r="N6" s="9">
         <f t="shared" si="1"/>
-        <v>-2.2902972487276463E-4</v>
+        <v>2.574980159653073E-8</v>
       </c>
       <c r="P6" s="2"/>
     </row>
@@ -737,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>4.7999999999999996E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="D7">
         <f>VALUE(LEFT(B7,LEN(B7)-1))</f>
@@ -745,7 +743,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>4.7999999999999996E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7">
@@ -762,19 +760,19 @@
       </c>
       <c r="J7" s="8">
         <f t="shared" si="0"/>
-        <v>4.7999999999999996E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="K7" s="8">
-        <v>4.7999999999999996E-3</v>
+        <v>-1.1000000000000001E-3</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="3"/>
-        <v>0.99041988315497897</v>
+        <v>1.0022084624659793</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="8">
         <f t="shared" si="1"/>
-        <v>-4800</v>
+        <v>1100</v>
       </c>
       <c r="P7" s="2"/>
     </row>
@@ -783,7 +781,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>6.4000000000000003E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="D8">
         <f t="shared" ref="D8:D17" si="6">VALUE(LEFT(B8,LEN(B8)-1))</f>
@@ -791,7 +789,7 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="2"/>
-        <v>6.4000000000000003E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="7">
@@ -808,19 +806,19 @@
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
-        <v>6.4000000000000003E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="K8" s="8">
-        <v>6.4000000000000003E-3</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="3"/>
-        <v>0.98094874499509943</v>
+        <v>1.0036130868610571</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="8">
         <f t="shared" si="1"/>
-        <v>-6400</v>
+        <v>1200</v>
       </c>
       <c r="P8" s="2"/>
     </row>
@@ -829,7 +827,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1">
-        <v>8.6E-3</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="D9">
         <f t="shared" si="6"/>
@@ -837,7 +835,7 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="2"/>
-        <v>8.6E-3</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="7">
@@ -854,19 +852,19 @@
       </c>
       <c r="J9" s="8">
         <f t="shared" si="0"/>
-        <v>8.6E-3</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="K9" s="8">
-        <v>8.6E-3</v>
+        <v>-2.9999999999999997E-4</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="3"/>
-        <v>0.96613942461230295</v>
+        <v>1.0012023660988423</v>
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="8">
         <f t="shared" si="1"/>
-        <v>-8600</v>
+        <v>300</v>
       </c>
       <c r="P9" s="2"/>
     </row>
@@ -875,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0800000000000001E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="D10">
         <f t="shared" si="6"/>
@@ -883,7 +881,7 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="2"/>
-        <v>1.0800000000000001E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="7">
@@ -900,19 +898,19 @@
       </c>
       <c r="J10" s="8">
         <f t="shared" si="0"/>
-        <v>1.0800000000000001E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="K10" s="8">
-        <v>1.0800000000000001E-2</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="3"/>
-        <v>0.94737604094567096</v>
+        <v>0.99600362329114189</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="8">
         <f t="shared" si="1"/>
-        <v>-10800</v>
+        <v>-800</v>
       </c>
       <c r="P10" s="2"/>
     </row>
@@ -921,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="1">
-        <v>1.43E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D11">
         <f t="shared" si="6"/>
@@ -929,7 +927,7 @@
       </c>
       <c r="E11" s="3">
         <f t="shared" si="2"/>
-        <v>1.43E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11">
@@ -947,11 +945,11 @@
       <c r="J11" s="3"/>
       <c r="K11" s="4">
         <f>FORECAST(I11,$E$10:$E$11,$D$10:$D$11)</f>
-        <v>1.255E-2</v>
+        <v>2.0499999999999997E-3</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="3"/>
-        <v>0.92740142810574044</v>
+        <v>0.98776424031060372</v>
       </c>
       <c r="P11" s="2"/>
     </row>
@@ -960,7 +958,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>1.95E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="D12">
         <f t="shared" si="6"/>
@@ -968,7 +966,7 @@
       </c>
       <c r="E12" s="3">
         <f t="shared" si="2"/>
-        <v>1.95E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="7">
@@ -985,19 +983,19 @@
       </c>
       <c r="J12" s="8">
         <f>C11</f>
-        <v>1.43E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="K12" s="9">
-        <v>1.43E-2</v>
+        <v>3.3E-3</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="3"/>
-        <v>0.90467604909568833</v>
+        <v>0.97714709329016258</v>
       </c>
       <c r="M12" s="11"/>
       <c r="N12" s="8">
         <f>(M12-J12)*1000000</f>
-        <v>-14300</v>
+        <v>-3300</v>
       </c>
       <c r="P12" s="2"/>
     </row>
@@ -1006,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>2.0199999999999999E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="D13">
         <f t="shared" si="6"/>
@@ -1014,7 +1012,7 @@
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>2.0199999999999999E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13">
@@ -1032,11 +1030,11 @@
       <c r="J13" s="3"/>
       <c r="K13" s="4">
         <f>FORECAST(I13,$E$11:$E$12,$D$11:$D$12)</f>
-        <v>1.603333333333333E-2</v>
+        <v>4.4666666666666665E-3</v>
       </c>
       <c r="L13" s="10">
         <f t="shared" si="3"/>
-        <v>0.87954150832813083</v>
+        <v>0.9648739497273231</v>
       </c>
       <c r="P13" s="2"/>
     </row>
@@ -1045,7 +1043,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="1">
-        <v>2.1299999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="D14">
         <f t="shared" si="6"/>
@@ -1053,7 +1051,7 @@
       </c>
       <c r="E14" s="3">
         <f t="shared" si="2"/>
-        <v>2.1299999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14">
@@ -1071,11 +1069,11 @@
       <c r="J14" s="8"/>
       <c r="K14" s="4">
         <f>FORECAST(I14,$E$11:$E$12,$D$11:$D$12)</f>
-        <v>1.7766666666666667E-2</v>
+        <v>5.6333333333333331E-3</v>
       </c>
       <c r="L14" s="10">
         <f t="shared" si="3"/>
-        <v>0.85214604578836695</v>
+        <v>0.95053445574929174</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="9"/>
@@ -1086,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1">
-        <v>2.29E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="D15">
         <f t="shared" si="6"/>
@@ -1094,7 +1092,7 @@
       </c>
       <c r="E15" s="3">
         <f t="shared" si="2"/>
-        <v>2.29E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="7">
@@ -1111,19 +1109,19 @@
       </c>
       <c r="J15" s="8">
         <f>C12</f>
-        <v>1.95E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="K15" s="9">
-        <v>1.95E-2</v>
+        <v>6.7999999999999996E-3</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="3"/>
-        <v>0.82274674343328269</v>
+        <v>0.93422566342452817</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="8">
         <f>(M15-J15)*1000000</f>
-        <v>-19500</v>
+        <v>-6800</v>
       </c>
       <c r="P15" s="2"/>
     </row>
@@ -1132,7 +1130,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="1">
-        <v>2.4299999999999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="D16">
         <f t="shared" si="6"/>
@@ -1140,7 +1138,7 @@
       </c>
       <c r="E16" s="3">
         <f t="shared" si="2"/>
-        <v>2.4299999999999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16">
@@ -1158,11 +1156,11 @@
       <c r="J16" s="3"/>
       <c r="K16" s="4">
         <f>FORECAST(I16,$E$12:$E$13,$D$12:$D$13)</f>
-        <v>1.985E-2</v>
+        <v>7.7499999999999999E-3</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="3"/>
-        <v>0.80375661995902947</v>
+        <v>0.91824369029337372</v>
       </c>
       <c r="P16" s="2"/>
     </row>
@@ -1171,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="1">
-        <v>2.5700000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="D17">
         <f t="shared" si="6"/>
@@ -1179,7 +1177,7 @@
       </c>
       <c r="E17" s="3">
         <f t="shared" si="2"/>
-        <v>2.5700000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="7">
@@ -1196,19 +1194,19 @@
       </c>
       <c r="J17" s="8">
         <f>C13</f>
-        <v>2.0199999999999999E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="K17" s="9">
-        <v>2.0199999999999999E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="3"/>
-        <v>0.78465536354511523</v>
+        <v>0.90082193507480446</v>
       </c>
       <c r="M17" s="11"/>
       <c r="N17" s="8">
         <f>(M17-J17)*1000000</f>
-        <v>-20200</v>
+        <v>-8700</v>
       </c>
       <c r="P17" s="2"/>
     </row>
@@ -1229,11 +1227,11 @@
       <c r="J18" s="3"/>
       <c r="K18" s="4">
         <f>FORECAST(I18,$E$13:$E$14,$D$13:$D$14)</f>
-        <v>2.0566666666666664E-2</v>
+        <v>9.3666666666666672E-3</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="3"/>
-        <v>0.7653061258191336</v>
+        <v>0.88530948825142941</v>
       </c>
       <c r="M18" s="8"/>
       <c r="N18" s="9"/>
@@ -1257,11 +1255,11 @@
       <c r="J19" s="3"/>
       <c r="K19" s="4">
         <f>FORECAST(I19,$E$13:$E$14,$D$13:$D$14)</f>
-        <v>2.0933333333333332E-2</v>
+        <v>1.0033333333333333E-2</v>
       </c>
       <c r="L19" s="10">
         <f t="shared" si="3"/>
-        <v>0.7458868470332255</v>
+        <v>0.86890485829533404</v>
       </c>
       <c r="P19" s="2"/>
     </row>
@@ -1281,19 +1279,19 @@
       </c>
       <c r="J20" s="8">
         <f>C14</f>
-        <v>2.1299999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="K20" s="9">
-        <v>2.1299999999999999E-2</v>
+        <v>1.0699999999999999E-2</v>
       </c>
       <c r="L20" s="7">
         <f t="shared" si="3"/>
-        <v>0.7264274143929681</v>
+        <v>0.85166788870313981</v>
       </c>
       <c r="M20" s="11"/>
       <c r="N20" s="8">
         <f>(M20-J20)*1000000</f>
-        <v>-21300</v>
+        <v>-10700</v>
       </c>
       <c r="P20" s="2"/>
     </row>
@@ -1314,11 +1312,11 @@
       <c r="J21" s="3"/>
       <c r="K21" s="4">
         <f>FORECAST(I21,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>2.1620000000000004E-2</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="L21" s="10">
         <f t="shared" si="3"/>
-        <v>0.70748527262904382</v>
+        <v>0.83856743802302092</v>
       </c>
       <c r="P21" s="2"/>
     </row>
@@ -1339,11 +1337,11 @@
       <c r="J22" s="3"/>
       <c r="K22" s="4">
         <f>FORECAST(I22,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>2.1940000000000001E-2</v>
+        <v>1.1299999999999999E-2</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="3"/>
-        <v>0.68859621883866762</v>
+        <v>0.82517324743053466</v>
       </c>
       <c r="P22" s="2"/>
     </row>
@@ -1364,11 +1362,11 @@
       <c r="J23" s="3"/>
       <c r="K23" s="4">
         <f>FORECAST(I23,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>2.2260000000000002E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="L23" s="10">
         <f t="shared" si="3"/>
-        <v>0.66978268322757717</v>
+        <v>0.8115059486281393</v>
       </c>
       <c r="P23" s="2"/>
     </row>
@@ -1389,11 +1387,11 @@
       <c r="J24" s="3"/>
       <c r="K24" s="4">
         <f>FORECAST(I24,$E$14:$E$15,$D$14:$D$15)</f>
-        <v>2.2580000000000003E-2</v>
+        <v>1.1900000000000001E-2</v>
       </c>
       <c r="L24" s="10">
         <f t="shared" si="3"/>
-        <v>0.65106634727644985</v>
+        <v>0.79758632514962202</v>
       </c>
       <c r="P24" s="2"/>
     </row>
@@ -1413,19 +1411,19 @@
       </c>
       <c r="J25" s="8">
         <f>C15</f>
-        <v>2.29E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="K25" s="9">
-        <v>2.29E-2</v>
+        <v>1.2200000000000001E-2</v>
       </c>
       <c r="L25" s="7">
         <f t="shared" si="3"/>
-        <v>0.63246810947620136</v>
+        <v>0.78343526040174527</v>
       </c>
       <c r="M25" s="11"/>
       <c r="N25" s="8">
         <f>(M25-J25)*1000000</f>
-        <v>-22900</v>
+        <v>-12200</v>
       </c>
       <c r="P25" s="2"/>
     </row>
@@ -1446,11 +1444,11 @@
       <c r="J26" s="3"/>
       <c r="K26" s="4">
         <f>FORECAST(I26,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>2.3179999999999999E-2</v>
+        <v>1.2299999999999998E-2</v>
       </c>
       <c r="L26" s="10">
         <f t="shared" si="3"/>
-        <v>0.61452417261790027</v>
+        <v>0.77231143487170684</v>
       </c>
       <c r="P26" s="2"/>
     </row>
@@ -1471,11 +1469,11 @@
       <c r="J27" s="3"/>
       <c r="K27" s="4">
         <f>FORECAST(I27,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>2.3460000000000002E-2</v>
+        <v>1.2399999999999998E-2</v>
       </c>
       <c r="L27" s="10">
         <f t="shared" si="3"/>
-        <v>0.59675505199827139</v>
+        <v>0.76119330021705423</v>
       </c>
       <c r="P27" s="2"/>
     </row>
@@ -1496,11 +1494,11 @@
       <c r="J28" s="3"/>
       <c r="K28" s="4">
         <f>FORECAST(I28,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>2.3740000000000001E-2</v>
+        <v>1.2499999999999999E-2</v>
       </c>
       <c r="L28" s="10">
         <f t="shared" si="3"/>
-        <v>0.57917530095899783</v>
+        <v>0.7500851893136018</v>
       </c>
       <c r="P28" s="2"/>
     </row>
@@ -1521,11 +1519,11 @@
       <c r="J29" s="3"/>
       <c r="K29" s="4">
         <f>FORECAST(I29,$E$15:$E$16,$D$15:$D$16)</f>
-        <v>2.402E-2</v>
+        <v>1.2599999999999998E-2</v>
       </c>
       <c r="L29" s="10">
         <f t="shared" si="3"/>
-        <v>0.56179873475683439</v>
+        <v>0.7389913662676495</v>
       </c>
       <c r="P29" s="2"/>
     </row>
@@ -1545,19 +1543,19 @@
       </c>
       <c r="J30" s="8">
         <f>C16</f>
-        <v>2.4299999999999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="K30" s="9">
-        <v>2.4299999999999999E-2</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="L30" s="7">
         <f t="shared" si="3"/>
-        <v>0.54463842182741651</v>
+        <v>0.72791602403364419</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="8">
         <f>(M30-J30)*1000000</f>
-        <v>-24300</v>
+        <v>-12700</v>
       </c>
       <c r="P30" s="2"/>
     </row>
@@ -1578,11 +1576,11 @@
       <c r="J31" s="3"/>
       <c r="K31" s="4">
         <f>FORECAST(I31,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>2.4579999999999998E-2</v>
+        <v>1.2720000000000002E-2</v>
       </c>
       <c r="L31" s="10">
         <f t="shared" si="3"/>
-        <v>0.52770667736755095</v>
+        <v>0.71835622445448566</v>
       </c>
       <c r="P31" s="2"/>
     </row>
@@ -1603,11 +1601,11 @@
       <c r="J32" s="3"/>
       <c r="K32" s="4">
         <f>FORECAST(I32,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>2.486E-2</v>
+        <v>1.2740000000000001E-2</v>
       </c>
       <c r="L32" s="10">
         <f t="shared" si="3"/>
-        <v>0.51101505918767209</v>
+        <v>0.70889361844144239</v>
       </c>
       <c r="P32" s="2"/>
     </row>
@@ -1628,11 +1626,11 @@
       <c r="J33" s="3"/>
       <c r="K33" s="4">
         <f>FORECAST(I33,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>2.5140000000000003E-2</v>
+        <v>1.2760000000000002E-2</v>
       </c>
       <c r="L33" s="10">
         <f t="shared" si="3"/>
-        <v>0.4945743657788535</v>
+        <v>0.6995276777118925</v>
       </c>
       <c r="P33" s="2"/>
     </row>
@@ -1653,11 +1651,11 @@
       <c r="J34" s="3"/>
       <c r="K34" s="4">
         <f>FORECAST(I34,$E$16:$E$17,$D$16:$D$17)</f>
-        <v>2.5420000000000002E-2</v>
+        <v>1.2780000000000001E-2</v>
       </c>
       <c r="L34" s="10">
         <f t="shared" si="3"/>
-        <v>0.47839463653193814</v>
+        <v>0.69025786942953526</v>
       </c>
       <c r="P34" s="2"/>
     </row>
@@ -1677,19 +1675,19 @@
       </c>
       <c r="J35" s="8">
         <f>C17</f>
-        <v>2.5700000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="K35" s="9">
-        <v>2.5700000000000001E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" si="3"/>
-        <v>0.46248515404000823</v>
+        <v>0.68108365634924017</v>
       </c>
       <c r="M35" s="11"/>
       <c r="N35" s="8">
         <f>(M35-J35)*1000000</f>
-        <v>-25700</v>
+        <v>-12800</v>
       </c>
       <c r="P35" s="2"/>
     </row>

--- a/Derives_de_taux/xls/CalageCourbeDesTaux_vide.xlsx
+++ b/Derives_de_taux/xls/CalageCourbeDesTaux_vide.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\OneDrive\Documents\Mes Projets\Formation_Finance\Derives_de_taux\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_DCC9DC1E6FCF4BEC56DFBE21419D1191116E1F2D" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B05E5566-294A-491C-929F-01F9979D11C0}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="12084" windowHeight="7104"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Callage" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -86,12 +100,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +192,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -224,7 +246,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,9 +278,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,6 +330,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -465,19 +523,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16">
+    <row r="1" spans="2:16" x14ac:dyDescent="0.45">
       <c r="I1" s="6" t="s">
         <v>16</v>
       </c>
@@ -497,7 +555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -541,7 +599,7 @@
         <v>4.4884235217423907E-8</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -585,7 +643,7 @@
         <v>7.8115482832208372E-6</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>2</v>
       </c>
@@ -632,7 +690,7 @@
         <v>4.3453196769960289E-7</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -681,7 +739,7 @@
       </c>
       <c r="P5" s="6"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -730,7 +788,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -743,7 +801,7 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="2"/>
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.1038668617877145E-3</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="7">
@@ -763,20 +821,23 @@
         <v>-1.1000000000000001E-3</v>
       </c>
       <c r="K7" s="8">
-        <v>-1.1000000000000001E-3</v>
+        <v>-1.1038668617877145E-3</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="3"/>
-        <v>1.0022084624659793</v>
-      </c>
-      <c r="M7" s="11"/>
+        <v>1.0022162345344059</v>
+      </c>
+      <c r="M7" s="11">
+        <f>(L2-L7)/(L6+L7)</f>
+        <v>-1.1000000000178079E-3</v>
+      </c>
       <c r="N7" s="8">
         <f t="shared" si="1"/>
-        <v>1100</v>
+        <v>-1.7807803842639913E-8</v>
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -822,7 +883,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>7</v>
       </c>
@@ -868,7 +929,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -914,7 +975,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -953,7 +1014,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="2:16">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -999,7 +1060,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1099,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>12</v>
       </c>
@@ -1079,7 +1140,7 @@
       <c r="N14" s="9"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1186,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1225,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -1210,7 +1271,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F18" s="5"/>
       <c r="G18">
         <f t="shared" si="7"/>
@@ -1237,7 +1298,7 @@
       <c r="N18" s="9"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="2:16">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.45">
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19">
@@ -1263,7 +1324,7 @@
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="2:16">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F20" s="5"/>
       <c r="G20" s="7">
         <f t="shared" si="7"/>
@@ -1295,7 +1356,7 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F21" s="3"/>
       <c r="G21">
         <f t="shared" si="7"/>
@@ -1320,7 +1381,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="2:16">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F22" s="5"/>
       <c r="G22">
         <f t="shared" si="7"/>
@@ -1345,7 +1406,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F23" s="3"/>
       <c r="G23">
         <f t="shared" si="7"/>
@@ -1370,7 +1431,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F24" s="5"/>
       <c r="G24">
         <f t="shared" si="7"/>
@@ -1395,7 +1456,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F25" s="3"/>
       <c r="G25" s="7">
         <f t="shared" si="7"/>
@@ -1427,7 +1488,7 @@
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F26" s="5"/>
       <c r="G26">
         <f>G25+12</f>
@@ -1452,7 +1513,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F27" s="3"/>
       <c r="G27">
         <f t="shared" si="7"/>
@@ -1477,7 +1538,7 @@
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F28" s="5"/>
       <c r="G28">
         <f t="shared" si="7"/>
@@ -1502,7 +1563,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F29" s="3"/>
       <c r="G29">
         <f t="shared" si="7"/>
@@ -1527,7 +1588,7 @@
       </c>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F30" s="5"/>
       <c r="G30" s="7">
         <f t="shared" si="7"/>
@@ -1559,7 +1620,7 @@
       </c>
       <c r="P30" s="2"/>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F31" s="3"/>
       <c r="G31">
         <f t="shared" si="7"/>
@@ -1584,7 +1645,7 @@
       </c>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
       <c r="F32" s="5"/>
       <c r="G32">
         <f t="shared" si="7"/>
@@ -1609,7 +1670,7 @@
       </c>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="6:16">
+    <row r="33" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F33" s="3"/>
       <c r="G33">
         <f t="shared" si="7"/>
@@ -1634,7 +1695,7 @@
       </c>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="6:16">
+    <row r="34" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F34" s="5"/>
       <c r="G34">
         <f t="shared" si="7"/>
@@ -1659,7 +1720,7 @@
       </c>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="6:16">
+    <row r="35" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F35" s="3"/>
       <c r="G35" s="7">
         <f t="shared" si="7"/>
@@ -1691,188 +1752,188 @@
       </c>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="6:16">
+    <row r="36" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F36" s="5"/>
       <c r="J36" s="3"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="6:16">
+    <row r="37" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="6:16">
+    <row r="38" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F38" s="5"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="6:16">
+    <row r="39" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="6:16">
+    <row r="40" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F40" s="5"/>
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="6:16">
+    <row r="41" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="6:16">
+    <row r="42" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F42" s="5"/>
       <c r="J42" s="3"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="6:16">
+    <row r="43" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="6:16">
+    <row r="44" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F44" s="5"/>
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="6:16">
+    <row r="45" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="6:16">
+    <row r="46" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F46" s="5"/>
       <c r="J46" s="3"/>
       <c r="K46" s="4"/>
     </row>
-    <row r="47" spans="6:16">
+    <row r="47" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="6:16">
+    <row r="48" spans="6:16" x14ac:dyDescent="0.45">
       <c r="F48" s="5"/>
       <c r="J48" s="3"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="6:11">
+    <row r="49" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="6:11">
+    <row r="50" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F50" s="5"/>
       <c r="J50" s="3"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="6:11">
+    <row r="51" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="4"/>
     </row>
-    <row r="52" spans="6:11">
+    <row r="52" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F52" s="5"/>
       <c r="J52" s="3"/>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" spans="6:11">
+    <row r="53" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" spans="6:11">
+    <row r="54" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F54" s="5"/>
       <c r="J54" s="3"/>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" spans="6:11">
+    <row r="55" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" spans="6:11">
+    <row r="56" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F56" s="5"/>
       <c r="J56" s="3"/>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" spans="6:11">
+    <row r="57" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" spans="6:11">
+    <row r="58" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F58" s="5"/>
       <c r="J58" s="3"/>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" spans="6:11">
+    <row r="59" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" spans="6:11">
+    <row r="60" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F60" s="5"/>
       <c r="J60" s="3"/>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" spans="6:11">
+    <row r="61" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" spans="6:11">
+    <row r="62" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F62" s="5"/>
       <c r="J62" s="3"/>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" spans="6:11">
+    <row r="63" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" spans="6:11">
+    <row r="64" spans="6:11" x14ac:dyDescent="0.45">
       <c r="F64" s="5"/>
       <c r="J64" s="3"/>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" spans="6:6">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="6:6">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="6:6">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="6:6">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="6:6">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="6:6">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="6:6">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="6:6">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="6:6">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="6:6">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="6:6">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="6:6">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.45">
       <c r="F77" s="3"/>
     </row>
   </sheetData>
@@ -1882,12 +1943,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
